--- a/biology/Médecine/François-Joseph_Hunauld/François-Joseph_Hunauld.xlsx
+++ b/biology/Médecine/François-Joseph_Hunauld/François-Joseph_Hunauld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Joseph_Hunauld</t>
+          <t>François-Joseph_Hunauld</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Joseph Hunauld, né le 24 février 1701 à Châteaubriant et mort le 15 décembre 1742 à Paris, est un anatomiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Joseph_Hunauld</t>
+          <t>François-Joseph_Hunauld</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Joseph Hunauld (ou Hunault) est né au sein d'une famille de médecins. Son grand-oncle, Pierre Hunauld (1664-1728), était médecin et professeur de médecine à Angers, son père René Hunauld, originaire d'Angers, était parti s'installer comme médecin à Saint-Malo et fut également professeur de médecine à la faculté de Caen.
 Il commença ses humanités à Rennes, puis des études de médecine à Angers, et les poursuivit à Paris. Il obtint finalement son diplôme de médecine à Reims en 1722. Il se consacra aux études d'anatomie à Paris sous les professeurs Jacques-Bénigne Winslow et Joseph Guichard Duverney. Il donna des descriptions de cas intéressants de monstruosités anatomiques.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Joseph_Hunauld</t>
+          <t>François-Joseph_Hunauld</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,12 +562,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publications originales
-1726 : Dissertation en forme de lettres au sujet des Ouvrages de l'auteur du livre sur les maladies des os ;
+          <t>Publications originales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1726 : Dissertation en forme de lettres au sujet des Ouvrages de l'auteur du livre sur les maladies des os ;
 1741 : Mémoire dans lequel on examine si l'huile d'olive est un spécifique contre la morsure des vipères, 1741, 2 p.
-1742 : Nouveau traité de physique sur toute la nature ; ou Meditations, et songes sur tous les corps dont la médecine tire les plus grands avantages pour guérir le corps humain; &amp; où l'on verra plusieurs curiositez qui n'ont point paru ; (2 volumes) — En ligne :  t. 1.
-Traductions
-« M. Charp », Histoire naturelle de l’âme, trad. Julien Offray de La Mettrie et François Joseph Hunauld, Oxford, 1747, 355 p.</t>
+1742 : Nouveau traité de physique sur toute la nature ; ou Meditations, et songes sur tous les corps dont la médecine tire les plus grands avantages pour guérir le corps humain; &amp; où l'on verra plusieurs curiositez qui n'ont point paru ; (2 volumes) — En ligne :  t. 1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François-Joseph_Hunauld</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois-Joseph_Hunauld</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>« M. Charp », Histoire naturelle de l’âme, trad. Julien Offray de La Mettrie et François Joseph Hunauld, Oxford, 1747, 355 p.</t>
         </is>
       </c>
     </row>
